--- a/Product backlog.xlsx
+++ b/Product backlog.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santo\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF2367C-30D7-4E83-A7F0-61CDB8B47A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Esempio:
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Esempio:
 "The user may consult the system to make wine inventory, i.e. check which wines are in inventory"
 	-Luca Santoro</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G4">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">"The &lt;&lt;How to demonstrate&gt;&gt; field of the implemented user stories should be linked to the documentation of the service which implements it"
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>"The &lt;&lt;How to demonstrate&gt;&gt; field of the implemented user stories should be linked to the documentation of the service which implements it"
 	-Luca Santoro
 Esempio:
 • A table with all wines and their property is visualized
 • &lt;eccezioni&gt;
 • link to the page of the feature
 	-Luca Santoro</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -98,10 +121,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> insert film</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
   </si>
@@ -145,10 +175,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> insert film</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
   </si>
@@ -222,46 +259,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -270,7 +316,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -310,27 +356,43 @@
     </fill>
   </fills>
   <borders count="38">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -342,35 +404,50 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -379,21 +456,36 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -405,6 +497,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -416,8 +510,11 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -427,6 +524,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -435,17 +533,22 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -460,8 +563,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -471,6 +576,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -485,6 +591,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -499,6 +606,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -507,30 +615,38 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -540,6 +656,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -554,8 +671,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -565,6 +684,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -579,6 +699,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -593,6 +714,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -601,9 +723,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -618,8 +742,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -629,6 +755,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -643,6 +770,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -657,27 +785,34 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -687,271 +822,268 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="81">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB6D7A8"/>
           <bgColor rgb="FFB6D7A8"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1141,591 +1273,599 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:AA19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="5.86"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="15.43"/>
-    <col customWidth="1" min="6" max="7" width="21.71"/>
-    <col customWidth="1" min="8" max="8" width="18.29"/>
-    <col customWidth="1" min="10" max="10" width="5.86"/>
-    <col customWidth="1" min="11" max="11" width="15.86"/>
-    <col customWidth="1" min="14" max="14" width="20.86"/>
-    <col customWidth="1" min="15" max="15" width="21.43"/>
-    <col customWidth="1" min="16" max="16" width="17.57"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="R2" s="6" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="R2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="7" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="7" t="s">
+      <c r="W2" s="65"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="3"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66"/>
     </row>
-    <row r="3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="13"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="13"/>
-      <c r="AA3" s="15"/>
+    <row r="3" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="80"/>
     </row>
-    <row r="4">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="11"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="69"/>
     </row>
-    <row r="5">
-      <c r="B5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="28" t="s">
+    <row r="5" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="29">
-        <v>100.0</v>
-      </c>
-      <c r="E5" s="29">
-        <v>5.0</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="13">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K5" s="32" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="29">
-        <v>100.0</v>
-      </c>
-      <c r="M5" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="N5" s="33" t="s">
+      <c r="L5" s="13">
+        <v>100</v>
+      </c>
+      <c r="M5" s="17">
+        <v>5</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="S5" s="36" t="s">
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="43"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27"/>
     </row>
-    <row r="6">
-      <c r="B6" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="45" t="s">
+    <row r="6" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="28">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="46">
-        <v>100.0</v>
-      </c>
-      <c r="E6" s="46">
-        <v>8.0</v>
-      </c>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="30">
+        <v>100</v>
+      </c>
+      <c r="E6" s="30">
+        <v>8</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="K6" s="45" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="32">
+        <v>2</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="49">
-        <v>100.0</v>
-      </c>
-      <c r="M6" s="50">
-        <v>8.0</v>
-      </c>
-      <c r="N6" s="50" t="s">
+      <c r="L6" s="33">
+        <v>100</v>
+      </c>
+      <c r="M6" s="34">
+        <v>8</v>
+      </c>
+      <c r="N6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="S6" s="53" t="s">
+      <c r="R6" s="36">
+        <v>2</v>
+      </c>
+      <c r="S6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="54" t="s">
+      <c r="T6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="59"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="43"/>
     </row>
-    <row r="7">
-      <c r="B7" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="45" t="s">
+    <row r="7" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="46">
-        <v>90.0</v>
-      </c>
-      <c r="E7" s="46">
-        <v>7.0</v>
-      </c>
-      <c r="F7" s="46" t="s">
+      <c r="D7" s="30">
+        <v>90</v>
+      </c>
+      <c r="E7" s="30">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="K7" s="61" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="44">
+        <v>3</v>
+      </c>
+      <c r="K7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="62">
-        <v>90.0</v>
-      </c>
-      <c r="M7" s="63">
-        <v>7.0</v>
-      </c>
-      <c r="N7" s="63" t="s">
+      <c r="L7" s="46">
+        <v>90</v>
+      </c>
+      <c r="M7" s="47">
+        <v>7</v>
+      </c>
+      <c r="N7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="64" t="s">
+      <c r="P7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="S7" s="66" t="s">
+      <c r="R7" s="49">
+        <v>3</v>
+      </c>
+      <c r="S7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="67" t="s">
+      <c r="T7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="68" t="s">
+      <c r="U7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="72"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="56"/>
     </row>
-    <row r="8">
-      <c r="B8" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C8" s="45" t="s">
+    <row r="8" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28">
+        <v>4</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="46">
-        <v>85.0</v>
-      </c>
-      <c r="E8" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="46" t="s">
+      <c r="D8" s="30">
+        <v>85</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="V8" s="75" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="V8" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="75"/>
+      <c r="X8" s="59"/>
     </row>
-    <row r="9">
-      <c r="B9" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C9" s="45" t="s">
+    <row r="9" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28">
+        <v>5</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="46">
-        <v>50.0</v>
-      </c>
-      <c r="E9" s="46">
-        <v>7.0</v>
-      </c>
-      <c r="F9" s="46" t="s">
+      <c r="D9" s="30">
+        <v>50</v>
+      </c>
+      <c r="E9" s="30">
+        <v>7</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
-    <row r="10">
-      <c r="B10" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C10" s="45" t="s">
+    <row r="10" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="46">
-        <v>40.0</v>
-      </c>
-      <c r="E10" s="46">
-        <v>4.0</v>
-      </c>
-      <c r="F10" s="46" t="s">
+      <c r="D10" s="30">
+        <v>40</v>
+      </c>
+      <c r="E10" s="30">
+        <v>4</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
-    <row r="11">
-      <c r="B11" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C11" s="45" t="s">
+    <row r="11" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="28">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="46">
-        <v>20.0</v>
-      </c>
-      <c r="E11" s="46">
-        <v>7.0</v>
-      </c>
-      <c r="F11" s="46" t="s">
+      <c r="D11" s="30">
+        <v>20</v>
+      </c>
+      <c r="E11" s="30">
+        <v>7</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
-    <row r="12">
-      <c r="B12" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C12" s="45" t="s">
+    <row r="12" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="46">
-        <v>20.0</v>
-      </c>
-      <c r="E12" s="46">
-        <v>7.0</v>
-      </c>
-      <c r="F12" s="46" t="s">
+      <c r="D12" s="30">
+        <v>20</v>
+      </c>
+      <c r="E12" s="30">
+        <v>7</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
-    <row r="13">
-      <c r="B13" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C13" s="45" t="s">
+    <row r="13" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28">
+        <v>9</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="46">
-        <v>15.0</v>
-      </c>
-      <c r="E13" s="46">
-        <v>6.0</v>
-      </c>
-      <c r="F13" s="46" t="s">
+      <c r="D13" s="30">
+        <v>15</v>
+      </c>
+      <c r="E13" s="30">
+        <v>6</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
-    <row r="14">
-      <c r="B14" s="76">
-        <v>10.0</v>
-      </c>
-      <c r="C14" s="61" t="s">
+    <row r="14" spans="2:27" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
+        <v>10</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="62">
-        <v>10.0</v>
-      </c>
-      <c r="E14" s="62">
-        <v>5.0</v>
-      </c>
-      <c r="F14" s="62" t="s">
+      <c r="D14" s="46">
+        <v>10</v>
+      </c>
+      <c r="E14" s="46">
+        <v>5</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
-    <row r="15">
-      <c r="D15" s="78"/>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D15" s="62"/>
     </row>
-    <row r="16">
-      <c r="D16" s="78"/>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D16" s="62"/>
     </row>
-    <row r="17">
-      <c r="D17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
     </row>
-    <row r="18">
-      <c r="D18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
     </row>
-    <row r="19">
-      <c r="D19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y2:AA4"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="J2:P3"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="S2:U4"/>
     <mergeCell ref="V2:X4"/>
-    <mergeCell ref="Y2:AA4"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D14 L5:L7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>0</formula>
       <formula>33</formula>
     </cfRule>
@@ -1737,12 +1877,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D14 L5:L7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>66</formula>
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>